--- a/biology/Zoologie/Encyocrypta_decooki/Encyocrypta_decooki.xlsx
+++ b/biology/Zoologie/Encyocrypta_decooki/Encyocrypta_decooki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Encyocrypta decooki est une espèce d'araignées mygalomorphes de la famille des Barychelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encyocrypta decooki est une espèce d'araignées mygalomorphes de la famille des Barychelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie[1]. Elle se rencontre vers la rivière des Pirogues[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie. Elle se rencontre vers la rivière des Pirogues.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 27 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 27 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Doug Cook[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Doug Cook.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven &amp; Churchill, 1991 : A revision of the mygalomorph spider genus Encyocrypta Simon in New Caledonia (Araneae Barychelidae). Zoologia Neocaledonica, vol. 2, Mémoires du Muséum National d'Histoire Naturelle de Paris, sér. A, vol. 149, p. 31-86.</t>
         </is>
